--- a/biology/Botanique/Cistanche/Cistanche.xlsx
+++ b/biology/Botanique/Cistanche/Cistanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cistanche est un genre de plantes parasites, appartenant aux angiospermes eudicotylédones de la famille des Orobanchaceae.
-Ce genre comprend 27 espèces[2] holoparasites, sans chlorophylle, des régions arides de l'ancien monde, de l'Afrique du Nord à la Chine occidentale.
+Ce genre comprend 27 espèces holoparasites, sans chlorophylle, des régions arides de l'ancien monde, de l'Afrique du Nord à la Chine occidentale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 octobre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 octobre 2014) :
 Cistanche afghanica
 Cistanche allochroa
 Cistanche ambigua
@@ -535,11 +549,11 @@
 Cistanche sinensis
 Cistanche tubulosa
 Cistanche violacea
-Selon GRIN            (20 octobre 2014)[4] :
+Selon GRIN            (20 octobre 2014) :
 Cistanche deserticola Ma
 Cistanche salsa (C. A. Mey.) Beck
 Cistanche tubulosa (Schrenk) Wight
-Selon ITIS      (20 octobre 2014)[5] :
+Selon ITIS      (20 octobre 2014) :
 Cistanche deserticola Ma</t>
         </is>
       </c>
@@ -568,9 +582,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (20 octobre 2014)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (20 octobre 2014) :
 Cistanche deserticola
 Cistanche phelypaea
 sous-espèce Cistanche phelypaea subsp. lutea
@@ -579,7 +595,7 @@
 Cistanche sinensis
 Cistanche tubulosa
 Cistanche violacea
-Selon The Plant List            (20 octobre 2014)[2] :
+Selon The Plant List            (20 octobre 2014) :
 Cistanche afghanica Gilli
 Cistanche ambigua (Bunge) Beck
 Cistanche calotropidis (Edgew.) Wight
@@ -607,7 +623,7 @@
 Cistanche trivalvis (Trautv.) Beck
 Cistanche tubulosa (Schenk) Wight
 Cistanche violacea (Desf.) Hoffmanns. &amp; Link
-Selon Tropicos                                           (20 octobre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 octobre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Cistanche afghanica Gilli
 Cistanche allochroa Chiov.
 Cistanche ambigua (Bunge) Beck
